--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43291,6 +43291,41 @@
         <v>1185300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>299000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43326,6 +43326,41 @@
         <v>299000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>380000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43361,6 +43361,41 @@
         <v>380000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1088000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43396,6 +43396,41 @@
         <v>1088000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>227000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43431,6 +43431,41 @@
         <v>227000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>656000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43466,6 +43466,41 @@
         <v>656000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1043700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43501,6 +43501,41 @@
         <v>1043700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>63700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43536,6 +43536,41 @@
         <v>63700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1832600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43571,6 +43571,41 @@
         <v>1832600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>734200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43606,6 +43606,41 @@
         <v>734200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>996100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43641,6 +43641,41 @@
         <v>996100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3490400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43676,6 +43676,41 @@
         <v>3490400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2111900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43711,6 +43711,76 @@
         <v>2111900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>932500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>6702100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43781,6 +43781,76 @@
         <v>6702100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2501800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1360500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43851,6 +43851,41 @@
         <v>1360500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4623300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43886,6 +43886,41 @@
         <v>4623300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>4040800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43921,6 +43921,41 @@
         <v>4040800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1591000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43956,6 +43956,41 @@
         <v>1591000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>4264600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43991,6 +43991,76 @@
         <v>4264600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2660900</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2079100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44061,6 +44061,41 @@
         <v>2079100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2794200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44096,6 +44096,41 @@
         <v>2794200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2698500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2583"/>
+  <dimension ref="A1:I2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91101,6 +91101,41 @@
         <v>2698500</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2584" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2584" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I2584" t="n">
+        <v>3179500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2584"/>
+  <dimension ref="A1:I2585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91136,6 +91136,41 @@
         <v>3179500</v>
       </c>
     </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2585" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2585" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2585" t="n">
+        <v>5862500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2585"/>
+  <dimension ref="A1:I2586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91171,6 +91171,41 @@
         <v>5862500</v>
       </c>
     </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2586" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2586" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2586" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2586" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2586" t="n">
+        <v>3247300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2586"/>
+  <dimension ref="A1:I2587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91206,6 +91206,41 @@
         <v>3247300</v>
       </c>
     </row>
+    <row r="2587">
+      <c r="A2587" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2587" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2587" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2587" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2587" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2587" t="n">
+        <v>3101000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2587"/>
+  <dimension ref="A1:I2588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91241,6 +91241,41 @@
         <v>3101000</v>
       </c>
     </row>
+    <row r="2588">
+      <c r="A2588" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2588" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2588" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2588" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2588" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2588" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2588" t="n">
+        <v>421700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2588"/>
+  <dimension ref="A1:I2589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91276,6 +91276,41 @@
         <v>421700</v>
       </c>
     </row>
+    <row r="2589">
+      <c r="A2589" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2589" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2589" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2589" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2589" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2589" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2589" t="n">
+        <v>1046100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2589"/>
+  <dimension ref="A1:I2590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91311,6 +91311,41 @@
         <v>1046100</v>
       </c>
     </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2590" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2590" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2590" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2590" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2590" t="n">
+        <v>1494700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2590"/>
+  <dimension ref="A1:I2591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91346,6 +91346,41 @@
         <v>1494700</v>
       </c>
     </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2591" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2591" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2591" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2591" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2591" t="n">
+        <v>876200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2591"/>
+  <dimension ref="A1:I2592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91381,6 +91381,41 @@
         <v>876200</v>
       </c>
     </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2592" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2592" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2592" t="n">
+        <v>243800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2592"/>
+  <dimension ref="A1:I2593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91416,6 +91416,41 @@
         <v>243800</v>
       </c>
     </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2593" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2593" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2593" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2593" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2593" t="n">
+        <v>1467100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2593"/>
+  <dimension ref="A1:I2594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91451,6 +91451,41 @@
         <v>1467100</v>
       </c>
     </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2594" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2594" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2594" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2594"/>
+  <dimension ref="A1:I2595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91486,6 +91486,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2595" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2595" t="n">
+        <v>58900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2595"/>
+  <dimension ref="A1:I2596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91521,6 +91521,41 @@
         <v>58900</v>
       </c>
     </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2596" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2596" t="n">
+        <v>1412400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2596"/>
+  <dimension ref="A1:I2597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91556,6 +91556,41 @@
         <v>1412400</v>
       </c>
     </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2597" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2597" t="n">
+        <v>201000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9113.xlsx
+++ b/data/9113.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2597"/>
+  <dimension ref="A1:I2598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91591,6 +91591,41 @@
         <v>201000</v>
       </c>
     </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>9113</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>ICONIC</t>
+        </is>
+      </c>
+      <c r="E2598" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2598" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2598" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2598" t="n">
+        <v>94100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
